--- a/ExperimentDefaults.xlsx
+++ b/ExperimentDefaults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Время начала</t>
   </si>
@@ -430,21 +430,37 @@
   <si>
     <t>Значение</t>
   </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:00:50</t>
+  </si>
+  <si>
+    <t>19.05.2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,43 +832,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,46 +856,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,1594 +1204,1354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <f>A2+1</f>
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
-        <f>B2+Settings!$B$13</f>
+      <c r="B3" s="10">
         <v>0.5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
-        <f>B3+Settings!$B$13</f>
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <f t="shared" si="0"/>
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
-        <f>B4+Settings!$B$13</f>
+      <c r="B5" s="10">
         <v>1.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <f t="shared" si="0"/>
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
-        <f>B5+Settings!$B$13</f>
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <f t="shared" si="0"/>
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
-        <f>B6+Settings!$B$13</f>
+      <c r="B7" s="10">
         <v>2.5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <f t="shared" si="0"/>
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
-        <f>B7+Settings!$B$13</f>
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <f t="shared" si="0"/>
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
-        <f>B8+Settings!$B$13</f>
+      <c r="B9" s="10">
         <v>3.5</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <f t="shared" si="0"/>
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
-        <f>B9+Settings!$B$13</f>
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <f t="shared" si="0"/>
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
-        <f>B10+Settings!$B$13</f>
+      <c r="B11" s="10">
         <v>4.5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <f t="shared" si="0"/>
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
-        <f>B11+Settings!$B$13</f>
+      <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <f t="shared" si="0"/>
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
-        <f>B12+Settings!$B$13</f>
+      <c r="B13" s="10">
         <v>5.5</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
-        <f>B13+Settings!$B$13</f>
+      <c r="B14" s="10">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
-        <f>B14+Settings!$B$13</f>
+      <c r="B15" s="10">
         <v>6.5</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <f>B15+Settings!$B$13</f>
+      <c r="B16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <f t="shared" si="0"/>
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
-        <f>B16+Settings!$B$13</f>
+      <c r="B17" s="10">
         <v>7.5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <f t="shared" si="0"/>
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
-        <f>B17+Settings!$B$13</f>
+      <c r="B18" s="10">
         <v>8</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <f t="shared" si="0"/>
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
-        <f>B18+Settings!$B$13</f>
+      <c r="B19" s="10">
         <v>8.5</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <f t="shared" si="0"/>
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
-        <f>B19+Settings!$B$13</f>
+      <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <f t="shared" si="0"/>
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
-        <f>B20+Settings!$B$13</f>
+      <c r="B21" s="10">
         <v>9.5</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <f t="shared" si="0"/>
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
-        <f>B21+Settings!$B$13</f>
+      <c r="B22" s="10">
         <v>10</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <f t="shared" si="0"/>
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
-        <f>B22+Settings!$B$13</f>
+      <c r="B23" s="10">
         <v>10.5</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <f t="shared" si="0"/>
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
-        <f>B23+Settings!$B$13</f>
+      <c r="B24" s="10">
         <v>11</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <f t="shared" si="0"/>
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
-        <f>B24+Settings!$B$13</f>
+      <c r="B25" s="10">
         <v>11.5</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <f t="shared" si="0"/>
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
-        <f>B25+Settings!$B$13</f>
+      <c r="B26" s="10">
         <v>12</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <f t="shared" si="0"/>
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
-        <f>B26+Settings!$B$13</f>
+      <c r="B27" s="10">
         <v>12.5</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <f t="shared" si="0"/>
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
-        <f>B27+Settings!$B$13</f>
+      <c r="B28" s="10">
         <v>13</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <f t="shared" si="0"/>
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
-        <f>B28+Settings!$B$13</f>
+      <c r="B29" s="10">
         <v>13.5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <f t="shared" si="0"/>
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="17">
-        <f>B29+Settings!$B$13</f>
+      <c r="B30" s="10">
         <v>14</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <f t="shared" si="0"/>
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
-        <f>B30+Settings!$B$13</f>
+      <c r="B31" s="10">
         <v>14.5</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <f t="shared" si="0"/>
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
-        <f>B31+Settings!$B$13</f>
+      <c r="B32" s="10">
         <v>15</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <f t="shared" si="0"/>
+      <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
-        <f>B32+Settings!$B$13</f>
+      <c r="B33" s="10">
         <v>15.5</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <f t="shared" si="0"/>
+      <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
-        <f>B33+Settings!$B$13</f>
+      <c r="B34" s="10">
         <v>16</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <f t="shared" si="0"/>
+      <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="17">
-        <f>B34+Settings!$B$13</f>
+      <c r="B35" s="10">
         <v>16.5</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <f t="shared" si="0"/>
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="17">
-        <f>B35+Settings!$B$13</f>
+      <c r="B36" s="10">
         <v>17</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <f t="shared" si="0"/>
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="17">
-        <f>B36+Settings!$B$13</f>
+      <c r="B37" s="10">
         <v>17.5</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <f t="shared" si="0"/>
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
-        <f>B37+Settings!$B$13</f>
+      <c r="B38" s="10">
         <v>18</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <f t="shared" si="0"/>
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="17">
-        <f>B38+Settings!$B$13</f>
+      <c r="B39" s="10">
         <v>18.5</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <f t="shared" si="0"/>
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="17">
-        <f>B39+Settings!$B$13</f>
+      <c r="B40" s="10">
         <v>19</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <f t="shared" si="0"/>
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="17">
-        <f>B40+Settings!$B$13</f>
+      <c r="B41" s="10">
         <v>19.5</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <f t="shared" si="0"/>
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="17">
-        <f>B41+Settings!$B$13</f>
+      <c r="B42" s="10">
         <v>20</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <f t="shared" si="0"/>
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="17">
-        <f>B42+Settings!$B$13</f>
+      <c r="B43" s="10">
         <v>20.5</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <f t="shared" si="0"/>
+      <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="17">
-        <f>B43+Settings!$B$13</f>
+      <c r="B44" s="10">
         <v>21</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <f t="shared" si="0"/>
+      <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="17">
-        <f>B44+Settings!$B$13</f>
+      <c r="B45" s="10">
         <v>21.5</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <f t="shared" si="0"/>
+      <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="17">
-        <f>B45+Settings!$B$13</f>
+      <c r="B46" s="10">
         <v>22</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <f t="shared" si="0"/>
+      <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="17">
-        <f>B46+Settings!$B$13</f>
+      <c r="B47" s="10">
         <v>22.5</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <f t="shared" si="0"/>
+      <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="17">
-        <f>B47+Settings!$B$13</f>
+      <c r="B48" s="10">
         <v>23</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <f t="shared" si="0"/>
+      <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="17">
-        <f>B48+Settings!$B$13</f>
+      <c r="B49" s="10">
         <v>23.5</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <f t="shared" si="0"/>
+      <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="17">
-        <f>B49+Settings!$B$13</f>
+      <c r="B50" s="10">
         <v>24</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <f t="shared" si="0"/>
+      <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="17">
-        <f>B50+Settings!$B$13</f>
+      <c r="B51" s="10">
         <v>24.5</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <f t="shared" si="0"/>
+      <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="17">
-        <f>B51+Settings!$B$13</f>
+      <c r="B52" s="10">
         <v>25</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <f t="shared" si="0"/>
+      <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="17">
-        <f>B52+Settings!$B$13</f>
+      <c r="B53" s="10">
         <v>25.5</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <f t="shared" si="0"/>
+      <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="17">
-        <f>B53+Settings!$B$13</f>
+      <c r="B54" s="10">
         <v>26</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <f t="shared" si="0"/>
+      <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="17">
-        <f>B54+Settings!$B$13</f>
+      <c r="B55" s="10">
         <v>26.5</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <f t="shared" si="0"/>
+      <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="17">
-        <f>B55+Settings!$B$13</f>
+      <c r="B56" s="10">
         <v>27</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <f t="shared" si="0"/>
+      <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="17">
-        <f>B56+Settings!$B$13</f>
+      <c r="B57" s="10">
         <v>27.5</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <f t="shared" si="0"/>
+      <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="17">
-        <f>B57+Settings!$B$13</f>
+      <c r="B58" s="10">
         <v>28</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <f t="shared" si="0"/>
+      <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="17">
-        <f>B58+Settings!$B$13</f>
+      <c r="B59" s="10">
         <v>28.5</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <f t="shared" si="0"/>
+      <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="17">
-        <f>B59+Settings!$B$13</f>
+      <c r="B60" s="10">
         <v>29</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <f t="shared" si="0"/>
+      <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="17">
-        <f>B60+Settings!$B$13</f>
+      <c r="B61" s="10">
         <v>29.5</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <f t="shared" si="0"/>
+      <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="17">
-        <f>B61+Settings!$B$13</f>
+      <c r="B62" s="10">
         <v>30</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <f t="shared" si="0"/>
+      <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="17">
-        <f>B62+Settings!$B$13</f>
+      <c r="B63" s="10">
         <v>30.5</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <f t="shared" si="0"/>
+      <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="17">
-        <f>B63+Settings!$B$13</f>
+      <c r="B64" s="10">
         <v>31</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
-        <f t="shared" si="0"/>
+      <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="17">
-        <f>B64+Settings!$B$13</f>
+      <c r="B65" s="10">
         <v>31.5</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <f t="shared" si="0"/>
+      <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="17">
-        <f>B65+Settings!$B$13</f>
+      <c r="B66" s="10">
         <v>32</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <f t="shared" si="0"/>
+      <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="17">
-        <f>B66+Settings!$B$13</f>
+      <c r="B67" s="10">
         <v>32.5</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <f t="shared" ref="A68:A122" si="1">A67+1</f>
+      <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="17">
-        <f>B67+Settings!$B$13</f>
+      <c r="B68" s="10">
         <v>33</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
-        <f t="shared" si="1"/>
+      <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="17">
-        <f>B68+Settings!$B$13</f>
+      <c r="B69" s="10">
         <v>33.5</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
-        <f t="shared" si="1"/>
+      <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="17">
-        <f>B69+Settings!$B$13</f>
+      <c r="B70" s="10">
         <v>34</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
-        <f t="shared" si="1"/>
+      <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="17">
-        <f>B70+Settings!$B$13</f>
+      <c r="B71" s="10">
         <v>34.5</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
-        <f t="shared" si="1"/>
+      <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="17">
-        <f>B71+Settings!$B$13</f>
+      <c r="B72" s="10">
         <v>35</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <f t="shared" si="1"/>
+      <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="17">
-        <f>B72+Settings!$B$13</f>
+      <c r="B73" s="10">
         <v>35.5</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
-        <f t="shared" si="1"/>
+      <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="17">
-        <f>B73+Settings!$B$13</f>
+      <c r="B74" s="10">
         <v>36</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
-        <f t="shared" si="1"/>
+      <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="17">
-        <f>B74+Settings!$B$13</f>
+      <c r="B75" s="10">
         <v>36.5</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
-        <f t="shared" si="1"/>
+      <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="17">
-        <f>B75+Settings!$B$13</f>
+      <c r="B76" s="10">
         <v>37</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
-        <f t="shared" si="1"/>
+      <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="17">
-        <f>B76+Settings!$B$13</f>
+      <c r="B77" s="10">
         <v>37.5</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
-        <f t="shared" si="1"/>
+      <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="17">
-        <f>B77+Settings!$B$13</f>
+      <c r="B78" s="10">
         <v>38</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
-        <f t="shared" si="1"/>
+      <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="17">
-        <f>B78+Settings!$B$13</f>
+      <c r="B79" s="10">
         <v>38.5</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
-        <f t="shared" si="1"/>
+      <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="17">
-        <f>B79+Settings!$B$13</f>
+      <c r="B80" s="10">
         <v>39</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
-        <f t="shared" si="1"/>
+      <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="17">
-        <f>B80+Settings!$B$13</f>
+      <c r="B81" s="10">
         <v>39.5</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
-        <f t="shared" si="1"/>
+      <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="17">
-        <f>B81+Settings!$B$13</f>
+      <c r="B82" s="10">
         <v>40</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
-        <f t="shared" si="1"/>
+      <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="17">
-        <f>B82+Settings!$B$13</f>
+      <c r="B83" s="10">
         <v>40.5</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15">
-        <f t="shared" si="1"/>
+      <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="17">
-        <f>B83+Settings!$B$13</f>
+      <c r="B84" s="10">
         <v>41</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
-        <f t="shared" si="1"/>
+      <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="17">
-        <f>B84+Settings!$B$13</f>
+      <c r="B85" s="10">
         <v>41.5</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
-        <f t="shared" si="1"/>
+      <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="17">
-        <f>B85+Settings!$B$13</f>
+      <c r="B86" s="10">
         <v>42</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
-        <f t="shared" si="1"/>
+      <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="17">
-        <f>B86+Settings!$B$13</f>
+      <c r="B87" s="10">
         <v>42.5</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
-        <f t="shared" si="1"/>
+      <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="17">
-        <f>B87+Settings!$B$13</f>
+      <c r="B88" s="10">
         <v>43</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
-        <f t="shared" si="1"/>
+      <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="17">
-        <f>B88+Settings!$B$13</f>
+      <c r="B89" s="10">
         <v>43.5</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
-        <f t="shared" si="1"/>
+      <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="17">
-        <f>B89+Settings!$B$13</f>
+      <c r="B90" s="10">
         <v>44</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
-        <f t="shared" si="1"/>
+      <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="17">
-        <f>B90+Settings!$B$13</f>
+      <c r="B91" s="10">
         <v>44.5</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
-        <f t="shared" si="1"/>
+      <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="17">
-        <f>B91+Settings!$B$13</f>
+      <c r="B92" s="10">
         <v>45</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="15">
-        <f t="shared" si="1"/>
+      <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="17">
-        <f>B92+Settings!$B$13</f>
+      <c r="B93" s="10">
         <v>45.5</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
-        <f t="shared" si="1"/>
+      <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="17">
-        <f>B93+Settings!$B$13</f>
+      <c r="B94" s="10">
         <v>46</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="15">
-        <f t="shared" si="1"/>
+      <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="17">
-        <f>B94+Settings!$B$13</f>
+      <c r="B95" s="10">
         <v>46.5</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
-        <f t="shared" si="1"/>
+      <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="17">
-        <f>B95+Settings!$B$13</f>
+      <c r="B96" s="10">
         <v>47</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="15">
-        <f t="shared" si="1"/>
+      <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="17">
-        <f>B96+Settings!$B$13</f>
+      <c r="B97" s="10">
         <v>47.5</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
-        <f t="shared" si="1"/>
+      <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="17">
-        <f>B97+Settings!$B$13</f>
+      <c r="B98" s="10">
         <v>48</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
-        <f t="shared" si="1"/>
+      <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="17">
-        <f>B98+Settings!$B$13</f>
+      <c r="B99" s="10">
         <v>48.5</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
-        <f t="shared" si="1"/>
+      <c r="A100" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="17">
-        <f>B99+Settings!$B$13</f>
+      <c r="B100" s="10">
         <v>49</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
-        <f t="shared" si="1"/>
+      <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="17">
-        <f>B100+Settings!$B$13</f>
+      <c r="B101" s="10">
         <v>49.5</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
-        <f t="shared" si="1"/>
+      <c r="A102" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="17">
-        <f>B101+Settings!$B$13</f>
+      <c r="B102" s="10">
         <v>50</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="15">
-        <f t="shared" si="1"/>
+      <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="17">
-        <f>B102+Settings!$B$13</f>
+      <c r="B103" s="10">
         <v>50.5</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="15">
-        <f t="shared" si="1"/>
+      <c r="A104" s="8">
         <v>102</v>
       </c>
-      <c r="B104" s="17">
-        <f>B103+Settings!$B$13</f>
+      <c r="B104" s="10">
         <v>51</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
-        <f t="shared" si="1"/>
+      <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="17">
-        <f>B104+Settings!$B$13</f>
+      <c r="B105" s="10">
         <v>51.5</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="15">
-        <f t="shared" si="1"/>
+      <c r="A106" s="8">
         <v>104</v>
       </c>
-      <c r="B106" s="17">
-        <f>B105+Settings!$B$13</f>
+      <c r="B106" s="10">
         <v>52</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15">
-        <f t="shared" si="1"/>
+      <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="17">
-        <f>B106+Settings!$B$13</f>
+      <c r="B107" s="10">
         <v>52.5</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
-        <f t="shared" si="1"/>
+      <c r="A108" s="8">
         <v>106</v>
       </c>
-      <c r="B108" s="17">
-        <f>B107+Settings!$B$13</f>
+      <c r="B108" s="10">
         <v>53</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="15">
-        <f t="shared" si="1"/>
+      <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="17">
-        <f>B108+Settings!$B$13</f>
+      <c r="B109" s="10">
         <v>53.5</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="15">
-        <f t="shared" si="1"/>
+      <c r="A110" s="8">
         <v>108</v>
       </c>
-      <c r="B110" s="17">
-        <f>B109+Settings!$B$13</f>
+      <c r="B110" s="10">
         <v>54</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="15">
-        <f t="shared" si="1"/>
+      <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="17">
-        <f>B110+Settings!$B$13</f>
+      <c r="B111" s="10">
         <v>54.5</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="15">
-        <f t="shared" si="1"/>
+      <c r="A112" s="8">
         <v>110</v>
       </c>
-      <c r="B112" s="17">
-        <f>B111+Settings!$B$13</f>
+      <c r="B112" s="10">
         <v>55</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15">
-        <f t="shared" si="1"/>
+      <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="17">
-        <f>B112+Settings!$B$13</f>
+      <c r="B113" s="10">
         <v>55.5</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
-        <f t="shared" si="1"/>
+      <c r="A114" s="8">
         <v>112</v>
       </c>
-      <c r="B114" s="17">
-        <f>B113+Settings!$B$13</f>
+      <c r="B114" s="10">
         <v>56</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15">
-        <f t="shared" si="1"/>
+      <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="17">
-        <f>B114+Settings!$B$13</f>
+      <c r="B115" s="10">
         <v>56.5</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
-        <f t="shared" si="1"/>
+      <c r="A116" s="8">
         <v>114</v>
       </c>
-      <c r="B116" s="17">
-        <f>B115+Settings!$B$13</f>
+      <c r="B116" s="10">
         <v>57</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="15">
-        <f t="shared" si="1"/>
+      <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="17">
-        <f>B116+Settings!$B$13</f>
+      <c r="B117" s="10">
         <v>57.5</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15">
-        <f t="shared" si="1"/>
+      <c r="A118" s="8">
         <v>116</v>
       </c>
-      <c r="B118" s="17">
-        <f>B117+Settings!$B$13</f>
+      <c r="B118" s="10">
         <v>58</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15">
-        <f t="shared" si="1"/>
+      <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="17">
-        <f>B118+Settings!$B$13</f>
+      <c r="B119" s="10">
         <v>58.5</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="15">
-        <f t="shared" si="1"/>
+      <c r="A120" s="8">
         <v>118</v>
       </c>
-      <c r="B120" s="17">
-        <f>B119+Settings!$B$13</f>
+      <c r="B120" s="10">
         <v>59</v>
       </c>
-      <c r="C120" s="15">
+      <c r="C120" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="15">
-        <f t="shared" si="1"/>
+      <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="17">
-        <f>B120+Settings!$B$13</f>
+      <c r="B121" s="10">
         <v>59.5</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
-        <f t="shared" si="1"/>
+      <c r="A122" s="8">
         <v>120</v>
       </c>
-      <c r="B122" s="17">
-        <f>B121+Settings!$B$13</f>
+      <c r="B122" s="10">
         <v>60</v>
       </c>
-      <c r="C122" s="15">
+      <c r="C122" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2787,65 +2566,61 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
-        <f ca="1">TODAY()</f>
-        <v>42864</v>
+      <c r="B3" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
-        <f ca="1">NOW()</f>
-        <v>42864.713723379631</v>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
-        <f ca="1">B4+TIME(0, 0, 50)</f>
-        <v>42864.714302083332</v>
+      <c r="B5" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
-        <f ca="1">SECOND(B5-B4)</f>
+      <c r="B6" s="22">
         <v>50</v>
       </c>
     </row>
@@ -2853,7 +2628,7 @@
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +2636,7 @@
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2869,80 +2644,79 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="29">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="14">
-        <f>B15*(-5)</f>
+      <c r="B18" s="29">
         <v>-1</v>
       </c>
     </row>
@@ -2950,8 +2724,7 @@
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11">
-        <f>B15*5</f>
+      <c r="B19" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2959,76 +2732,71 @@
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11">
-        <f>B25</f>
+      <c r="B20" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12">
-        <f>B26</f>
+      <c r="B21" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="21">
-        <f>(B28/B13) + 1</f>
+      <c r="B23" s="30">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="14">
-        <f>B28-B28</f>
+      <c r="B25" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="19">
-        <f>B28</f>
+      <c r="B26" s="32">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="22">
         <v>60</v>
       </c>
     </row>
